--- a/src/main/resources/excel/ios.xlsx
+++ b/src/main/resources/excel/ios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>不良人IOS_WEB-001服</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>不良人IOS_WEB-005-007服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.104.234.50</t>
   </si>
   <si>
@@ -54,18 +50,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>不良人IOS_WEB-014-016服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.104.208.35</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-017-019服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.135.46.246</t>
   </si>
   <si>
@@ -76,180 +60,37 @@
     <t>10.135.0.232</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-023-025服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.135.27.43</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-026-030服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.135.36.80</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-031-035服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.38.255</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-036-040服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.104.211.53</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-041-044服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.104.225.112</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-045-047服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.104.107.243</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-048-050服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.104.202.18</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-051-055服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10.104.216.103</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-056-058服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.24.49</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-059-061服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.9.234</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-062-064服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.27.192</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-065服</t>
-  </si>
-  <si>
-    <t>10.135.17.253</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-066服</t>
-  </si>
-  <si>
-    <t>10.135.0.15</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-067服</t>
-  </si>
-  <si>
-    <t>10.135.3.193</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-068服</t>
-  </si>
-  <si>
     <t>10.135.33.7</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-069服</t>
-  </si>
-  <si>
-    <t>10.135.38.178</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-070服</t>
-  </si>
-  <si>
-    <t>10.135.28.176</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-071服</t>
-  </si>
-  <si>
     <t>10.135.36.79</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-072服</t>
-  </si>
-  <si>
-    <t>10.135.24.15</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-073服</t>
-  </si>
-  <si>
-    <t>10.104.108.243</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-074服</t>
-  </si>
-  <si>
     <t>10.104.80.207</t>
   </si>
   <si>
-    <t>不良人IOS_WEB-075服</t>
-  </si>
-  <si>
-    <t>10.104.66.97</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-076服</t>
-  </si>
-  <si>
-    <t>10.104.169.0</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-077服</t>
-  </si>
-  <si>
     <t>10.104.107.239</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-078服</t>
-  </si>
-  <si>
-    <t>10.104.109.92</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-079服</t>
-  </si>
-  <si>
-    <t>10.104.115.212</t>
-  </si>
-  <si>
-    <t>不良人IOS_WEB-080服</t>
-  </si>
-  <si>
-    <t>10.104.72.37</t>
   </si>
   <si>
     <t>name</t>
@@ -324,6 +165,106 @@
   </si>
   <si>
     <t>crs-0rrjszmx:1q2w3e4r</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-005-007服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-014-016服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.104.208.35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-017-019服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-023-025服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-026-030服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-031-035服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.38.255</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-036-040服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-041-044服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-045-047服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-048-050服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-051-055服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-056-058服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.24.49</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-059-061服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.9.234</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-062-064服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.27.192</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-065-067服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.17.253</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-068-070服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-071-073服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-074-076服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人IOS_WEB-077-079服</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -762,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D43"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -779,27 +720,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>3306</v>
@@ -810,10 +751,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>3306</v>
@@ -824,10 +765,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>3306</v>
@@ -838,10 +779,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>3306</v>
@@ -852,10 +793,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>3306</v>
@@ -864,15 +805,15 @@
         <v>30005</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>3306</v>
@@ -883,10 +824,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>6379</v>
@@ -895,7 +836,7 @@
         <v>30007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -928,10 +869,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C11">
         <v>3306</v>
@@ -942,10 +883,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C12">
         <v>3306</v>
@@ -956,10 +897,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C13">
         <v>3306</v>
@@ -970,10 +911,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>3306</v>
@@ -984,10 +925,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>3306</v>
@@ -998,10 +939,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>3306</v>
@@ -1012,10 +953,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>3306</v>
@@ -1026,10 +967,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>3306</v>
@@ -1040,10 +981,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>3306</v>
@@ -1054,10 +995,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>3306</v>
@@ -1068,10 +1009,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>3306</v>
@@ -1082,10 +1023,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>3306</v>
@@ -1096,10 +1037,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>3306</v>
@@ -1110,10 +1051,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>3306</v>
@@ -1124,10 +1065,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>3306</v>
@@ -1137,11 +1078,11 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C26">
         <v>3306</v>
@@ -1151,11 +1092,11 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C27">
         <v>3306</v>
@@ -1165,11 +1106,11 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C28">
         <v>3306</v>
@@ -1179,11 +1120,11 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C29">
         <v>3306</v>
@@ -1193,11 +1134,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C30">
         <v>3306</v>
@@ -1207,11 +1148,11 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C31">
         <v>3306</v>
@@ -1221,171 +1162,17 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
+      <c r="A32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C32">
         <v>3306</v>
       </c>
       <c r="D32">
         <v>30031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33">
-        <v>3306</v>
-      </c>
-      <c r="D33">
-        <v>30032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34">
-        <v>3306</v>
-      </c>
-      <c r="D34">
-        <v>30033</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35">
-        <v>3306</v>
-      </c>
-      <c r="D35">
-        <v>30034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36">
-        <v>3306</v>
-      </c>
-      <c r="D36">
-        <v>30035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37">
-        <v>3306</v>
-      </c>
-      <c r="D37">
-        <v>30036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38">
-        <v>3306</v>
-      </c>
-      <c r="D38">
-        <v>30037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39">
-        <v>3306</v>
-      </c>
-      <c r="D39">
-        <v>30038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40">
-        <v>3306</v>
-      </c>
-      <c r="D40">
-        <v>30039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41">
-        <v>3306</v>
-      </c>
-      <c r="D41">
-        <v>30040</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42">
-        <v>3306</v>
-      </c>
-      <c r="D42">
-        <v>30041</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43">
-        <v>3306</v>
-      </c>
-      <c r="D43">
-        <v>30042</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/ios.xlsx
+++ b/src/main/resources/excel/ios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>不良人IOS_WEB-001服</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -266,6 +266,19 @@
   <si>
     <t>不良人IOS_WEB-077-079服</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -703,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -716,9 +729,11 @@
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -734,8 +749,20 @@
       <c r="E1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -748,8 +775,20 @@
       <c r="D2">
         <v>30001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -762,8 +801,20 @@
       <c r="D3">
         <v>30002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -776,8 +827,20 @@
       <c r="D4">
         <v>30003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -790,8 +853,20 @@
       <c r="D5">
         <v>30004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -807,8 +882,20 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -821,8 +908,20 @@
       <c r="D7">
         <v>30006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -838,8 +937,20 @@
       <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,8 +963,20 @@
       <c r="D9">
         <v>30008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -866,8 +989,20 @@
       <c r="D10">
         <v>30009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -880,8 +1015,20 @@
       <c r="D11">
         <v>30010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,8 +1041,20 @@
       <c r="D12">
         <v>30011</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +1067,20 @@
       <c r="D13">
         <v>30012</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -922,8 +1093,20 @@
       <c r="D14">
         <v>30013</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -936,8 +1119,20 @@
       <c r="D15">
         <v>30014</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,8 +1145,20 @@
       <c r="D16">
         <v>30015</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -964,8 +1171,20 @@
       <c r="D17">
         <v>30016</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -978,8 +1197,20 @@
       <c r="D18">
         <v>30017</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -992,8 +1223,20 @@
       <c r="D19">
         <v>30018</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1006,8 +1249,20 @@
       <c r="D20">
         <v>30019</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -1020,8 +1275,20 @@
       <c r="D21">
         <v>30020</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1034,8 +1301,20 @@
       <c r="D22">
         <v>30021</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1048,8 +1327,20 @@
       <c r="D23">
         <v>30022</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1062,8 +1353,20 @@
       <c r="D24">
         <v>30023</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1076,8 +1379,20 @@
       <c r="D25">
         <v>30024</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1090,8 +1405,20 @@
       <c r="D26">
         <v>30025</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1104,8 +1431,20 @@
       <c r="D27">
         <v>30026</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -1118,8 +1457,20 @@
       <c r="D28">
         <v>30027</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -1132,8 +1483,20 @@
       <c r="D29">
         <v>30028</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -1146,8 +1509,20 @@
       <c r="D30">
         <v>30029</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1160,8 +1535,20 @@
       <c r="D31">
         <v>30030</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
@@ -1173,10 +1560,23 @@
       </c>
       <c r="D32">
         <v>30031</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>